--- a/dataset/continents/main.xlsx
+++ b/dataset/continents/main.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk001\Desktop\PSIT Project\Tourism-Thailand\dataset\continents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sector_17_3_TH_ (1)" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ทวีป" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="sector_17_3_TH_ (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="ทวีป" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,12 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
-    <t xml:space="preserve">จำนวนนักท่องเที่ยวที่เข้ามาในประเทศไทย จำแนกตามสัญชาติ พ.ศ. 2550 - 2559</t>
+    <t>จำนวนนักท่องเที่ยวที่เข้ามาในประเทศไทย จำแนกตามสัญชาติ พ.ศ. 2550 - 2559</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -45,202 +49,202 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">คน</t>
+      <t>คน</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ทวีป</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ประเทศ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รวม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                รวม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#########</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เอเชียตะวันออก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    กลุ่มอาเซียน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        บรูไนดารุสซาลาม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        กัมพูชา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        อินโดนีเซีย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ลาว</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        มาเลเซีย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        พม่า</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ฟิลิปปินส์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        สิงคโปร์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        เวียดนาม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    จีน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ฮ่องกง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ญี่ปุ่น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    เกาหลี</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ไต้หวัน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ประเทศอื่น ๆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ยุโรป</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ออสเตรีย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    เบลเยียม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    เดนมาร์ก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ฟินแลนด์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ฝรั่งเศส</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    เยอรมนี</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ไอร์แลนด์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    อิตาลี</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    เนเธอร์แลนด์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    นอร์เวย์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    รัสเซีย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    สเปน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    สวีเดน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    สวิตเซอร์แลนด์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    สหราชอาณาจักร</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    กลุ่มยุโรปตะวันออก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Canada</t>
+    <t>ทวีป</t>
+  </si>
+  <si>
+    <t>ประเทศ</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>                รวม</t>
+  </si>
+  <si>
+    <t>#########</t>
+  </si>
+  <si>
+    <t>เอเชียตะวันออก</t>
+  </si>
+  <si>
+    <t>    กลุ่มอาเซียน</t>
+  </si>
+  <si>
+    <t>        บรูไนดารุสซาลาม</t>
+  </si>
+  <si>
+    <t>        กัมพูชา</t>
+  </si>
+  <si>
+    <t>        อินโดนีเซีย</t>
+  </si>
+  <si>
+    <t>        ลาว</t>
+  </si>
+  <si>
+    <t>        มาเลเซีย</t>
+  </si>
+  <si>
+    <t>        พม่า</t>
+  </si>
+  <si>
+    <t>        ฟิลิปปินส์</t>
+  </si>
+  <si>
+    <t>        สิงคโปร์</t>
+  </si>
+  <si>
+    <t>        เวียดนาม</t>
+  </si>
+  <si>
+    <t>    จีน</t>
+  </si>
+  <si>
+    <t>    ฮ่องกง</t>
+  </si>
+  <si>
+    <t>    ญี่ปุ่น</t>
+  </si>
+  <si>
+    <t>    เกาหลี</t>
+  </si>
+  <si>
+    <t>    ไต้หวัน</t>
+  </si>
+  <si>
+    <t>    ประเทศอื่น ๆ</t>
+  </si>
+  <si>
+    <t>ยุโรป</t>
+  </si>
+  <si>
+    <t>    ออสเตรีย</t>
+  </si>
+  <si>
+    <t>    เบลเยียม</t>
+  </si>
+  <si>
+    <t>    เดนมาร์ก</t>
+  </si>
+  <si>
+    <t>    ฟินแลนด์</t>
+  </si>
+  <si>
+    <t>    ฝรั่งเศส</t>
+  </si>
+  <si>
+    <t>    เยอรมนี</t>
+  </si>
+  <si>
+    <t>    ไอร์แลนด์</t>
+  </si>
+  <si>
+    <t>    อิตาลี</t>
+  </si>
+  <si>
+    <t>    เนเธอร์แลนด์</t>
+  </si>
+  <si>
+    <t>    นอร์เวย์</t>
+  </si>
+  <si>
+    <t>    รัสเซีย</t>
+  </si>
+  <si>
+    <t>    สเปน</t>
+  </si>
+  <si>
+    <t>    สวีเดน</t>
+  </si>
+  <si>
+    <t>    สวิตเซอร์แลนด์</t>
+  </si>
+  <si>
+    <t>    สหราชอาณาจักร</t>
+  </si>
+  <si>
+    <t>    กลุ่มยุโรปตะวันออก</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>    Argentina</t>
+  </si>
+  <si>
+    <t>    Brazil</t>
+  </si>
+  <si>
+    <t>    Canada</t>
   </si>
   <si>
     <t xml:space="preserve">    United States of America
 </t>
   </si>
   <si>
-    <t xml:space="preserve">    Other Country</t>
+    <t>    Other Country</t>
   </si>
   <si>
     <t xml:space="preserve">South Asia
 </t>
   </si>
   <si>
-    <t xml:space="preserve">South Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">โอเชียเนีย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ออสเตรเลีย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    นิวซีแลนด์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ตะวันออกกลาง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    อียิปต์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    อิสราเอล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    คูเวต</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ซาอุดีอาระเบีย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    สหรัฐอาหรับเอมิเรตส์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แอฟริกา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    สาธารณรัฐแอฟริกาใต้</t>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>    Bangladesh</t>
+  </si>
+  <si>
+    <t>    India</t>
+  </si>
+  <si>
+    <t>    Nepal</t>
+  </si>
+  <si>
+    <t>    Pakistan</t>
+  </si>
+  <si>
+    <t>    Sri Lanka</t>
+  </si>
+  <si>
+    <t>โอเชียเนีย</t>
+  </si>
+  <si>
+    <t>    ออสเตรเลีย</t>
+  </si>
+  <si>
+    <t>    นิวซีแลนด์</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>ตะวันออกกลาง</t>
+  </si>
+  <si>
+    <t>    อียิปต์</t>
+  </si>
+  <si>
+    <t>    อิสราเอล</t>
+  </si>
+  <si>
+    <t>    คูเวต</t>
+  </si>
+  <si>
+    <t>    ซาอุดีอาระเบีย</t>
+  </si>
+  <si>
+    <t>    สหรัฐอาหรับเอมิเรตส์</t>
+  </si>
+  <si>
+    <t>แอฟริกา</t>
+  </si>
+  <si>
+    <t>    สาธารณรัฐแอฟริกาใต้</t>
   </si>
   <si>
     <r>
@@ -251,18 +255,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t>     </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">หมายเหตุ:</t>
+      <t>หมายเหตุ:</t>
     </r>
     <r>
       <rPr>
@@ -284,18 +288,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">            </t>
+      <t>            </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ที่มา:</t>
+      <t>ที่มา:</t>
     </r>
     <r>
       <rPr>
@@ -309,51 +313,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Continent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa</t>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="7"/>
@@ -363,7 +348,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -383,18 +368,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -411,92 +384,59 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -555,3099 +495,3095 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>รวม</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.145374449339207"/>
-          <c:y val="0.138320209973753"/>
-          <c:w val="0.826789248547532"/>
-          <c:h val="0.721653543307087"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ทวีป!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>รวม</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>ทวีป!$B$9:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>14464228</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14584220</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14149841</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15936400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19230470</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22353903</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26546725</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24809683</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29923185</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32529588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="20941983"/>
-        <c:axId val="69792522"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="20941983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69792522"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="69792522"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="20941983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>460800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5976000" y="2133720"/>
-        <a:ext cx="5638320" cy="2742840"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.6"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="1" width="7.17813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.78542510121457"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="14" style="4"/>
+    <col min="3" max="6" width="7.21875" style="4"/>
+    <col min="7" max="12" width="7.6640625" style="4"/>
+    <col min="13" max="1025" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="10.8" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="N1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" ht="10.8" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="5">
         <v>2550</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="5">
         <v>2551</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="5">
         <v>2552</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="5">
         <v>2553</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="5">
         <v>2554</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="5">
         <v>2555</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="5">
         <v>2556</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="5">
         <v>2557</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="5">
         <v>2558</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="5">
         <v>2559</v>
       </c>
-      <c r="N3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6">
         <v>14464228</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="6">
         <v>14584220</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="6">
         <v>14149841</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="6">
         <v>15936400</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" ht="10.8" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="6">
         <v>7611931</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="6">
         <v>7601638</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="6">
         <v>7076190</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="6">
         <v>8167164</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <f aca="false">SUM(G6,G16,G17,G18,G20,G19,G21)</f>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:L5" si="0">SUM(G6,G16,G17,G18,G20,G19,G21)</f>
         <v>10345866</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <f aca="false">SUM(H6,H16,H17,H18,H20,H19,H21)</f>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
         <v>12525214</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <f aca="false">SUM(I6,I16,I17,I18,I20,I19,I21)</f>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
         <v>15911375</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <f aca="false">SUM(J6,J16,J17,J18,J20,J19,J21)</f>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
         <v>14603825</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <f aca="false">SUM(K6,K16,K17,K18,K20,K19,K21)</f>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
         <v>19908785</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <f aca="false">SUM(L6,L16,L17,L18,L20,L19,L21)</f>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
         <v>21593285</v>
       </c>
-      <c r="N5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6">
         <v>3520051</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="6">
         <v>3971429</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="6">
         <v>3968579</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="6">
         <v>4534235</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="6">
         <v>5594577</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="6">
         <v>6281153</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="6">
         <v>7282266</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="6">
         <v>6641772</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="6">
         <v>7920481</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="6">
         <v>8585251</v>
       </c>
-      <c r="N6" s="5" t="n">
-        <f aca="false">SUM(D6,D16,D17,D18,D19,D20,D21)</f>
+      <c r="N6" s="7">
+        <f>SUM(D6,D16,D17,D18,D19,D20,D21)</f>
         <v>7601638</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="6">
         <v>8987</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="6">
         <v>9055</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="6">
         <v>8353</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="6">
         <v>7073</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="6">
         <v>7471</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="6">
         <v>10459</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="6">
         <v>14205</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="6">
         <v>11285</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="6">
         <v>13836</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="6">
         <v>14023</v>
       </c>
-      <c r="N7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6">
         <v>99945</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="6">
         <v>85790</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="6">
         <v>96586</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="6">
         <v>146274</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="6">
         <v>265903</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="6">
         <v>423642</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="6">
         <v>481595</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="6">
         <v>550339</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="6">
         <v>537950</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="6">
         <v>674975</v>
       </c>
-      <c r="N8" s="5" t="n">
-        <f aca="false">SUM(C8:C15)</f>
+      <c r="N8" s="7">
+        <f>SUM(C8:C15)</f>
         <v>3511064</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="6">
         <v>237592</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="6">
         <v>247930</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="6">
         <v>227205</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="6">
         <v>286072</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="6">
         <v>370795</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="6">
         <v>447820</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="6">
         <v>594251</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="6">
         <v>497592</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="6">
         <v>469125</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="6">
         <v>534797</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6">
         <v>513701</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="6">
         <v>621564</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="6">
         <v>655034</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="6">
         <v>715345</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="6">
         <v>891950</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="6">
         <v>975999</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="6">
         <v>976639</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="6">
         <v>1053983</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="6">
         <v>1220522</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="6">
         <v>1388020</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="6">
         <v>1540080</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="6">
         <v>1805332</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="6">
         <v>1757813</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="6">
         <v>2058956</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="6">
         <v>2500280</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="6">
         <v>2554397</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="6">
         <v>3041097</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="6">
         <v>2613418</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="6">
         <v>3418855</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="6">
         <v>3494890</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6">
         <v>72205</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="6">
         <v>71902</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="6">
         <v>79279</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="6">
         <v>90179</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="6">
         <v>110671</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="6">
         <v>129385</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="6">
         <v>172383</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="6">
         <v>206794</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="6">
         <v>259678</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="6">
         <v>341626</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="6">
         <v>205266</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="6">
         <v>221506</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="6">
         <v>217705</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="6">
         <v>246430</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="6">
         <v>268375</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="6">
         <v>289566</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="6">
         <v>321571</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="6">
         <v>304813</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="6">
         <v>310968</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="6">
         <v>339150</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="6">
         <v>604603</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="6">
         <v>570047</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="6">
         <v>563575</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="6">
         <v>603538</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="6">
         <v>682364</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="6">
         <v>831215</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="6">
         <v>955468</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="6">
         <v>844133</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="6">
         <v>938385</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="6">
         <v>967550</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="6">
         <v>237672</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="6">
         <v>338303</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="6">
         <v>363029</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="6">
         <v>380368</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="6">
         <v>496768</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="6">
         <v>618670</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="6">
         <v>725057</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="6">
         <v>559415</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="6">
         <v>751162</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="6">
         <v>830220</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:14">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="6">
         <v>907117</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="6">
         <v>826660</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="6">
         <v>777508</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="6">
         <v>1122219</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="6">
         <v>1721247</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="6">
         <v>2786860</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="6">
         <v>4637335</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="6">
         <v>4636298</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="6">
         <v>7936795</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="6">
         <v>8757646</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="6">
         <v>367862</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="6">
         <v>337827</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="6">
         <v>318762</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="6">
         <v>316476</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="6">
         <v>411834</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="6">
         <v>473666</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="6">
         <v>588335</v>
       </c>
-      <c r="J17" s="4" t="n">
+      <c r="J17" s="6">
         <v>483131</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="6">
         <v>669617</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="6">
         <v>751264</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="6">
         <v>1277638</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="6">
         <v>1153868</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="6">
         <v>1004453</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="6">
         <v>993674</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="6">
         <v>1127893</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="6">
         <v>1373716</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="6">
         <v>1536425</v>
       </c>
-      <c r="J18" s="4" t="n">
+      <c r="J18" s="6">
         <v>1267886</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="6">
         <v>1381702</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="6">
         <v>1439510</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="6">
         <v>1083652</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="6">
         <v>889210</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="6">
         <v>618227</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="6">
         <v>805445</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="6">
         <v>1006283</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="6">
         <v>1163619</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="6">
         <v>1295342</v>
       </c>
-      <c r="J19" s="4" t="n">
+      <c r="J19" s="6">
         <v>1122566</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="6">
         <v>1373045</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="6">
         <v>1464200</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="6">
         <v>427474</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="6">
         <v>393176</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="6">
         <v>362783</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="6">
         <v>369220</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="6">
         <v>447610</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="6">
         <v>394225</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="6">
         <v>502176</v>
       </c>
-      <c r="J20" s="4" t="n">
+      <c r="J20" s="6">
         <v>394149</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="6">
         <v>552699</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="6">
         <v>522273</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="6">
         <v>28137</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="6">
         <v>29468</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="6">
         <v>25878</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="6">
         <v>25895</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="6">
         <v>36422</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="6">
         <v>51975</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="6">
         <v>69496</v>
       </c>
-      <c r="J21" s="4" t="n">
+      <c r="J21" s="6">
         <v>58023</v>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="6">
         <v>74446</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="6">
         <v>73141</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:12" ht="10.8" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="6">
         <v>3905271</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="6">
         <v>3984614</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="6">
         <v>4059988</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="6">
         <v>4442375</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="6">
         <v>5101406</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="6">
         <v>5650619</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="6">
         <v>6305945</v>
       </c>
-      <c r="J22" s="4" t="n">
+      <c r="J22" s="6">
         <v>6161893</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="6">
         <v>5631438</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="6">
         <v>6174957</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="2"/>
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="6">
         <v>81391</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="6">
         <v>80561</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="6">
         <v>85786</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="6">
         <v>90026</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="6">
         <v>89242</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="6">
         <v>94667</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="6">
         <v>106278</v>
       </c>
-      <c r="J23" s="4" t="n">
+      <c r="J23" s="6">
         <v>100968</v>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="6">
         <v>97869</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="6">
         <v>100373</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="6">
         <v>72018</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="6">
         <v>76132</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="6">
         <v>80420</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="6">
         <v>80000</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="6">
         <v>82610</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="6">
         <v>94896</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="6">
         <v>101109</v>
       </c>
-      <c r="J24" s="4" t="n">
+      <c r="J24" s="6">
         <v>99729</v>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="6">
         <v>106090</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="6">
         <v>111013</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="6">
         <v>141110</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="6">
         <v>149683</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="6">
         <v>144834</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="6">
         <v>152398</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="6">
         <v>164096</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="6">
         <v>167499</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="6">
         <v>163186</v>
       </c>
-      <c r="J25" s="4" t="n">
+      <c r="J25" s="6">
         <v>160977</v>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="6">
         <v>159435</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="6">
         <v>165581</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="2"/>
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="6">
         <v>143266</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="6">
         <v>155143</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="6">
         <v>156000</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="6">
         <v>146946</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="6">
         <v>157046</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="6">
         <v>154919</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="6">
         <v>141692</v>
       </c>
-      <c r="J26" s="4" t="n">
+      <c r="J26" s="6">
         <v>142425</v>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="6">
         <v>134750</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="6">
         <v>134238</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="6">
         <v>373090</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="6">
         <v>398407</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="6">
         <v>427067</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="6">
         <v>461670</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="6">
         <v>515572</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="6">
         <v>576106</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="6">
         <v>611582</v>
       </c>
-      <c r="J27" s="4" t="n">
+      <c r="J27" s="6">
         <v>635073</v>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="6">
         <v>681114</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="6">
         <v>738878</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="6">
         <v>544495</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="6">
         <v>542726</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="6">
         <v>573473</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="6">
         <v>606874</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="6">
         <v>619133</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="6">
         <v>682419</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="6">
         <v>737658</v>
       </c>
-      <c r="J28" s="4" t="n">
+      <c r="J28" s="6">
         <v>715240</v>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="6">
         <v>761819</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="6">
         <v>837885</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="6">
         <v>73734</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="6">
         <v>73380</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="6">
         <v>65530</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="6">
         <v>57515</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="6">
         <v>58945</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="6">
         <v>60305</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="6">
         <v>63522</v>
       </c>
-      <c r="J29" s="4" t="n">
+      <c r="J29" s="6">
         <v>63038</v>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="6">
         <v>64758</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="6">
         <v>67486</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="6">
         <v>171328</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="6">
         <v>159513</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="6">
         <v>170105</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="6">
         <v>168203</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="6">
         <v>185869</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="6">
         <v>200703</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="6">
         <v>207192</v>
       </c>
-      <c r="J30" s="4" t="n">
+      <c r="J30" s="6">
         <v>219875</v>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="6">
         <v>246094</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="6">
         <v>265597</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="6">
         <v>194434</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="6">
         <v>193541</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="6">
         <v>205412</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="6">
         <v>196994</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="6">
         <v>198891</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="6">
         <v>208122</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="6">
         <v>218765</v>
       </c>
-      <c r="J31" s="4" t="n">
+      <c r="J31" s="6">
         <v>211524</v>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="6">
         <v>221619</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="6">
         <v>235762</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="6">
         <v>108941</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="6">
         <v>124600</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="6">
         <v>121575</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="6">
         <v>132108</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="6">
         <v>136931</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="6">
         <v>148796</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="6">
         <v>154049</v>
       </c>
-      <c r="J32" s="4" t="n">
+      <c r="J32" s="6">
         <v>145207</v>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="6">
         <v>135382</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="6">
         <v>131039</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="6">
         <v>277503</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="6">
         <v>324120</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="6">
         <v>336965</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="6">
         <v>644678</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="6">
         <v>1054187</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="6">
         <v>1316564</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="6">
         <v>1746565</v>
       </c>
-      <c r="J33" s="4" t="n">
+      <c r="J33" s="6">
         <v>1606430</v>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="6">
         <v>884136</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="6">
         <v>1090083</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="6">
         <v>82111</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="6">
         <v>80369</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="6">
         <v>75362</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="6">
         <v>67242</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="6">
         <v>95383</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="6">
         <v>113141</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="6">
         <v>123084</v>
       </c>
-      <c r="J34" s="4" t="n">
+      <c r="J34" s="6">
         <v>116983</v>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="6">
         <v>150995</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="6">
         <v>168900</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="6">
         <v>378387</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="6">
         <v>392274</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="6">
         <v>350819</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="6">
         <v>355214</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="6">
         <v>373856</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="6">
         <v>364681</v>
       </c>
-      <c r="I35" s="4" t="n">
+      <c r="I35" s="6">
         <v>341398</v>
       </c>
-      <c r="J35" s="4" t="n">
+      <c r="J35" s="6">
         <v>324865</v>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="6">
         <v>321690</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="6">
         <v>332895</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="6">
         <v>146511</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="6">
         <v>143065</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="6">
         <v>148269</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="6">
         <v>155761</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="6">
         <v>170044</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="6">
         <v>191147</v>
       </c>
-      <c r="I36" s="4" t="n">
+      <c r="I36" s="6">
         <v>199923</v>
       </c>
-      <c r="J36" s="4" t="n">
+      <c r="J36" s="6">
         <v>201271</v>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="6">
         <v>206480</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="6">
         <v>209057</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="6">
         <v>859010</v>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="6">
         <v>826523</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="6">
         <v>841425</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="6">
         <v>810727</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="6">
         <v>844972</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="6">
         <v>873053</v>
       </c>
-      <c r="I37" s="4" t="n">
+      <c r="I37" s="6">
         <v>905024</v>
       </c>
-      <c r="J37" s="4" t="n">
+      <c r="J37" s="6">
         <v>907877</v>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="6">
         <v>947568</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="6">
         <v>1004345</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:12">
+      <c r="A38" s="2"/>
+      <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="6">
         <v>148302</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="6">
         <v>164029</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="6">
         <v>181247</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="6">
         <v>211672</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="6">
         <v>240886</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="6">
         <v>280976</v>
       </c>
-      <c r="I38" s="4" t="n">
+      <c r="I38" s="6">
         <v>346230</v>
       </c>
-      <c r="J38" s="4" t="n">
+      <c r="J38" s="6">
         <v>370726</v>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="6">
         <v>365064</v>
       </c>
-      <c r="L38" s="4" t="n">
+      <c r="L38" s="6">
         <v>409723</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="6">
         <v>109640</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="6">
         <v>100548</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="6">
         <v>95699</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="6">
         <v>104347</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="6">
         <v>113743</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="6">
         <v>122625</v>
       </c>
-      <c r="I39" s="4" t="n">
+      <c r="I39" s="6">
         <v>138688</v>
       </c>
-      <c r="J39" s="4" t="n">
+      <c r="J39" s="6">
         <v>139685</v>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="6">
         <v>146575</v>
       </c>
-      <c r="L39" s="4" t="n">
+      <c r="L39" s="6">
         <v>172102</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:12" ht="10.8" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="6">
         <v>920366</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="6">
         <v>909017</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="6">
         <v>853380</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="6">
         <v>844644</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="G40" s="6">
         <v>952519</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="6">
         <v>1083433</v>
       </c>
-      <c r="I40" s="4" t="n">
+      <c r="I40" s="6">
         <v>1166633</v>
       </c>
-      <c r="J40" s="4" t="n">
+      <c r="J40" s="6">
         <v>1099709</v>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="6">
         <v>1235468</v>
       </c>
-      <c r="L40" s="4" t="n">
+      <c r="L40" s="6">
         <v>1407458</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:12">
+      <c r="A41" s="2"/>
+      <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="6">
         <v>6704</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="6">
         <v>7132</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="6">
         <v>7458</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="6">
         <v>10292</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="6">
         <v>12970</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="6">
         <v>17853</v>
       </c>
-      <c r="I41" s="4" t="n">
+      <c r="I41" s="6">
         <v>21035</v>
       </c>
-      <c r="J41" s="4" t="n">
+      <c r="J41" s="6">
         <v>21438</v>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="6">
         <v>28961</v>
       </c>
-      <c r="L41" s="4" t="n">
+      <c r="L41" s="6">
         <v>45322</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="1:12">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="6">
         <v>15056</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="6">
         <v>16805</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="6">
         <v>17650</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="6">
         <v>20390</v>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="G42" s="6">
         <v>24560</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="6">
         <v>30387</v>
       </c>
-      <c r="I42" s="4" t="n">
+      <c r="I42" s="6">
         <v>37263</v>
       </c>
-      <c r="J42" s="4" t="n">
+      <c r="J42" s="6">
         <v>46378</v>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="K42" s="6">
         <v>48608</v>
       </c>
-      <c r="L42" s="4" t="n">
+      <c r="L42" s="6">
         <v>67469</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:12">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="6">
         <v>183440</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="6">
         <v>180900</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="6">
         <v>169482</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="6">
         <v>168393</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G43" s="6">
         <v>194356</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="6">
         <v>219354</v>
       </c>
-      <c r="I43" s="4" t="n">
+      <c r="I43" s="6">
         <v>229897</v>
       </c>
-      <c r="J43" s="4" t="n">
+      <c r="J43" s="6">
         <v>211059</v>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="K43" s="6">
         <v>227601</v>
       </c>
-      <c r="L43" s="4" t="n">
+      <c r="L43" s="6">
         <v>244869</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="1:12" ht="40.799999999999997">
+      <c r="A44" s="2"/>
+      <c r="B44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="6">
         <v>681972</v>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="6">
         <v>669097</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="6">
         <v>627074</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="6">
         <v>611792</v>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="G44" s="6">
         <v>681748</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="6">
         <v>768638</v>
       </c>
-      <c r="I44" s="4" t="n">
+      <c r="I44" s="6">
         <v>823486</v>
       </c>
-      <c r="J44" s="4" t="n">
+      <c r="J44" s="6">
         <v>763520</v>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="K44" s="6">
         <v>867505</v>
       </c>
-      <c r="L44" s="4" t="n">
+      <c r="L44" s="6">
         <v>975643</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" s="2"/>
+      <c r="B45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="6">
         <v>33194</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="6">
         <v>35083</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="6">
         <v>31716</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="6">
         <v>33777</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="G45" s="6">
         <v>38885</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="6">
         <v>47201</v>
       </c>
-      <c r="I45" s="4" t="n">
+      <c r="I45" s="6">
         <v>54952</v>
       </c>
-      <c r="J45" s="4" t="n">
+      <c r="J45" s="6">
         <v>57314</v>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="K45" s="6">
         <v>62793</v>
       </c>
-      <c r="L45" s="4" t="n">
+      <c r="L45" s="6">
         <v>74155</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:12" ht="10.8" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="6">
         <v>709811</v>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="6">
         <v>711290</v>
       </c>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="6">
         <v>826437</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="6">
         <v>995321</v>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="G46" s="6">
         <v>1158092</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="6">
         <v>1286861</v>
       </c>
-      <c r="I46" s="4" t="n">
+      <c r="I46" s="6">
         <v>1347585</v>
       </c>
-      <c r="J46" s="4" t="n">
+      <c r="J46" s="6">
         <v>1239183</v>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="K46" s="6">
         <v>1404271</v>
       </c>
-      <c r="L46" s="4" t="n">
+      <c r="L46" s="6">
         <v>1523555</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:12">
+      <c r="A47" s="2"/>
+      <c r="B47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="6">
         <v>44789</v>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="6">
         <v>46682</v>
       </c>
-      <c r="E47" s="4" t="n">
+      <c r="E47" s="6">
         <v>53420</v>
       </c>
-      <c r="F47" s="4" t="n">
+      <c r="F47" s="6">
         <v>68081</v>
       </c>
-      <c r="G47" s="4" t="n">
+      <c r="G47" s="6">
         <v>65150</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="H47" s="6">
         <v>72657</v>
       </c>
-      <c r="I47" s="4" t="n">
+      <c r="I47" s="6">
         <v>82418</v>
       </c>
-      <c r="J47" s="4" t="n">
+      <c r="J47" s="6">
         <v>88134</v>
       </c>
-      <c r="K47" s="4" t="n">
+      <c r="K47" s="6">
         <v>107394</v>
       </c>
-      <c r="L47" s="4" t="n">
+      <c r="L47" s="6">
         <v>100263</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="1:12">
+      <c r="A48" s="2"/>
+      <c r="B48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="6">
         <v>536356</v>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="6">
         <v>536964</v>
       </c>
-      <c r="E48" s="4" t="n">
+      <c r="E48" s="6">
         <v>614566</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="F48" s="6">
         <v>760371</v>
       </c>
-      <c r="G48" s="4" t="n">
+      <c r="G48" s="6">
         <v>914971</v>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="H48" s="6">
         <v>1013308</v>
       </c>
-      <c r="I48" s="4" t="n">
+      <c r="I48" s="6">
         <v>1050889</v>
       </c>
-      <c r="J48" s="4" t="n">
+      <c r="J48" s="6">
         <v>932603</v>
       </c>
-      <c r="K48" s="4" t="n">
+      <c r="K48" s="6">
         <v>1069422</v>
       </c>
-      <c r="L48" s="4" t="n">
+      <c r="L48" s="6">
         <v>1194508</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" s="2"/>
+      <c r="B49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="6">
         <v>19546</v>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="6">
         <v>20589</v>
       </c>
-      <c r="E49" s="4" t="n">
+      <c r="E49" s="6">
         <v>25499</v>
       </c>
-      <c r="F49" s="4" t="n">
+      <c r="F49" s="6">
         <v>28621</v>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="G49" s="6">
         <v>25382</v>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="H49" s="6">
         <v>26277</v>
       </c>
-      <c r="I49" s="4" t="n">
+      <c r="I49" s="6">
         <v>25455</v>
       </c>
-      <c r="J49" s="4" t="n">
+      <c r="J49" s="6">
         <v>25887</v>
       </c>
-      <c r="K49" s="4" t="n">
+      <c r="K49" s="6">
         <v>32678</v>
       </c>
-      <c r="L49" s="4" t="n">
+      <c r="L49" s="6">
         <v>42486</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="1:12">
+      <c r="A50" s="2"/>
+      <c r="B50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="6">
         <v>46656</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="6">
         <v>49169</v>
       </c>
-      <c r="E50" s="4" t="n">
+      <c r="E50" s="6">
         <v>63260</v>
       </c>
-      <c r="F50" s="4" t="n">
+      <c r="F50" s="6">
         <v>65171</v>
       </c>
-      <c r="G50" s="4" t="n">
+      <c r="G50" s="6">
         <v>73727</v>
       </c>
-      <c r="H50" s="4" t="n">
+      <c r="H50" s="6">
         <v>71982</v>
       </c>
-      <c r="I50" s="4" t="n">
+      <c r="I50" s="6">
         <v>78986</v>
       </c>
-      <c r="J50" s="4" t="n">
+      <c r="J50" s="6">
         <v>75398</v>
       </c>
-      <c r="K50" s="4" t="n">
+      <c r="K50" s="6">
         <v>78635</v>
       </c>
-      <c r="L50" s="4" t="n">
+      <c r="L50" s="6">
         <v>75308</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:12">
+      <c r="A51" s="2"/>
+      <c r="B51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="6">
         <v>44327</v>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="6">
         <v>38993</v>
       </c>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="6">
         <v>47138</v>
       </c>
-      <c r="F51" s="4" t="n">
+      <c r="F51" s="6">
         <v>49738</v>
       </c>
-      <c r="G51" s="4" t="n">
+      <c r="G51" s="6">
         <v>53636</v>
       </c>
-      <c r="H51" s="4" t="n">
+      <c r="H51" s="6">
         <v>73346</v>
       </c>
-      <c r="I51" s="4" t="n">
+      <c r="I51" s="6">
         <v>76260</v>
       </c>
-      <c r="J51" s="4" t="n">
+      <c r="J51" s="6">
         <v>77441</v>
       </c>
-      <c r="K51" s="4" t="n">
+      <c r="K51" s="6">
         <v>75434</v>
       </c>
-      <c r="L51" s="4" t="n">
+      <c r="L51" s="6">
         <v>68195</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="2"/>
+      <c r="B52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="6">
         <v>18137</v>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="6">
         <v>18893</v>
       </c>
-      <c r="E52" s="4" t="n">
+      <c r="E52" s="6">
         <v>22554</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="F52" s="6">
         <v>23339</v>
       </c>
-      <c r="G52" s="4" t="n">
+      <c r="G52" s="6">
         <v>25226</v>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="H52" s="6">
         <v>29291</v>
       </c>
-      <c r="I52" s="4" t="n">
+      <c r="I52" s="6">
         <v>33577</v>
       </c>
-      <c r="J52" s="4" t="n">
+      <c r="J52" s="6">
         <v>39720</v>
       </c>
-      <c r="K52" s="4" t="n">
+      <c r="K52" s="6">
         <v>40708</v>
       </c>
-      <c r="L52" s="4" t="n">
+      <c r="L52" s="6">
         <v>42795</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:12" ht="10.8" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="6">
         <v>764072</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="6">
         <v>794331</v>
       </c>
-      <c r="E53" s="4" t="n">
+      <c r="E53" s="6">
         <v>737460</v>
       </c>
-      <c r="F53" s="4" t="n">
+      <c r="F53" s="6">
         <v>789632</v>
       </c>
-      <c r="G53" s="4" t="n">
+      <c r="G53" s="6">
         <v>933534</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="H53" s="6">
         <v>1046755</v>
       </c>
-      <c r="I53" s="4" t="n">
+      <c r="I53" s="6">
         <v>1021936</v>
       </c>
-      <c r="J53" s="4" t="n">
+      <c r="J53" s="6">
         <v>942706</v>
       </c>
-      <c r="K53" s="4" t="n">
+      <c r="K53" s="6">
         <v>922977</v>
       </c>
-      <c r="L53" s="4" t="n">
+      <c r="L53" s="6">
         <v>910901</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:12">
+      <c r="A54" s="2"/>
+      <c r="B54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="6">
         <v>658148</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="6">
         <v>694473</v>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="6">
         <v>646705</v>
       </c>
-      <c r="F54" s="4" t="n">
+      <c r="F54" s="6">
         <v>698046</v>
       </c>
-      <c r="G54" s="4" t="n">
+      <c r="G54" s="6">
         <v>829855</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="H54" s="6">
         <v>930241</v>
       </c>
-      <c r="I54" s="4" t="n">
+      <c r="I54" s="6">
         <v>900460</v>
       </c>
-      <c r="J54" s="4" t="n">
+      <c r="J54" s="6">
         <v>831854</v>
       </c>
-      <c r="K54" s="4" t="n">
+      <c r="K54" s="6">
         <v>807450</v>
       </c>
-      <c r="L54" s="4" t="n">
+      <c r="L54" s="6">
         <v>796370</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:12">
+      <c r="A55" s="2"/>
+      <c r="B55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="6">
         <v>104195</v>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="6">
         <v>97894</v>
       </c>
-      <c r="E55" s="4" t="n">
+      <c r="E55" s="6">
         <v>88398</v>
       </c>
-      <c r="F55" s="4" t="n">
+      <c r="F55" s="6">
         <v>89364</v>
       </c>
-      <c r="G55" s="4" t="n">
+      <c r="G55" s="6">
         <v>101092</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="H55" s="6">
         <v>113871</v>
       </c>
-      <c r="I55" s="4" t="n">
+      <c r="I55" s="6">
         <v>118395</v>
       </c>
-      <c r="J55" s="4" t="n">
+      <c r="J55" s="6">
         <v>108081</v>
       </c>
-      <c r="K55" s="4" t="n">
+      <c r="K55" s="6">
         <v>112411</v>
       </c>
-      <c r="L55" s="4" t="n">
+      <c r="L55" s="6">
         <v>111595</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="1:12">
+      <c r="A56" s="2"/>
+      <c r="B56" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="4" t="n">
+      <c r="C56" s="6">
         <v>1729</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="6">
         <v>1964</v>
       </c>
-      <c r="E56" s="4" t="n">
+      <c r="E56" s="6">
         <v>2357</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="F56" s="6">
         <v>2222</v>
       </c>
-      <c r="G56" s="4" t="n">
+      <c r="G56" s="6">
         <v>2587</v>
       </c>
-      <c r="H56" s="4" t="n">
+      <c r="H56" s="6">
         <v>2643</v>
       </c>
-      <c r="I56" s="4" t="n">
+      <c r="I56" s="6">
         <v>3081</v>
       </c>
-      <c r="J56" s="4" t="n">
+      <c r="J56" s="6">
         <v>2771</v>
       </c>
-      <c r="K56" s="4" t="n">
+      <c r="K56" s="6">
         <v>3116</v>
       </c>
-      <c r="L56" s="4" t="n">
+      <c r="L56" s="6">
         <v>2936</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="6">
         <v>436100</v>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="6">
         <v>464330</v>
       </c>
-      <c r="E57" s="4" t="n">
+      <c r="E57" s="6">
         <v>483983</v>
       </c>
-      <c r="F57" s="4" t="n">
+      <c r="F57" s="6">
         <v>569334</v>
       </c>
-      <c r="G57" s="4" t="n">
+      <c r="G57" s="6">
         <v>601146</v>
       </c>
-      <c r="H57" s="4" t="n">
+      <c r="H57" s="6">
         <v>605477</v>
       </c>
-      <c r="I57" s="4" t="n">
+      <c r="I57" s="6">
         <v>630243</v>
       </c>
-      <c r="J57" s="4" t="n">
+      <c r="J57" s="6">
         <v>597892</v>
       </c>
-      <c r="K57" s="4" t="n">
+      <c r="K57" s="6">
         <v>658278</v>
       </c>
-      <c r="L57" s="4" t="n">
+      <c r="L57" s="6">
         <v>747219</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="2"/>
+      <c r="B58" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="6">
         <v>13037</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="6">
         <v>14122</v>
       </c>
-      <c r="E58" s="4" t="n">
+      <c r="E58" s="6">
         <v>15733</v>
       </c>
-      <c r="F58" s="4" t="n">
+      <c r="F58" s="6">
         <v>16729</v>
       </c>
-      <c r="G58" s="4" t="n">
+      <c r="G58" s="6">
         <v>16703</v>
       </c>
-      <c r="H58" s="4" t="n">
+      <c r="H58" s="6">
         <v>19918</v>
       </c>
-      <c r="I58" s="4" t="n">
+      <c r="I58" s="6">
         <v>28175</v>
       </c>
-      <c r="J58" s="4" t="n">
+      <c r="J58" s="6">
         <v>28934</v>
       </c>
-      <c r="K58" s="4" t="n">
+      <c r="K58" s="6">
         <v>25216</v>
       </c>
-      <c r="L58" s="4" t="n">
+      <c r="L58" s="6">
         <v>28114</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="1:12">
+      <c r="A59" s="2"/>
+      <c r="B59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="6">
         <v>128674</v>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="6">
         <v>108275</v>
       </c>
-      <c r="E59" s="4" t="n">
+      <c r="E59" s="6">
         <v>110884</v>
       </c>
-      <c r="F59" s="4" t="n">
+      <c r="F59" s="6">
         <v>116050</v>
       </c>
-      <c r="G59" s="4" t="n">
+      <c r="G59" s="6">
         <v>125093</v>
       </c>
-      <c r="H59" s="4" t="n">
+      <c r="H59" s="6">
         <v>129551</v>
       </c>
-      <c r="I59" s="4" t="n">
+      <c r="I59" s="6">
         <v>134874</v>
       </c>
-      <c r="J59" s="4" t="n">
+      <c r="J59" s="6">
         <v>138778</v>
       </c>
-      <c r="K59" s="4" t="n">
+      <c r="K59" s="6">
         <v>141031</v>
       </c>
-      <c r="L59" s="4" t="n">
+      <c r="L59" s="6">
         <v>161579</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:12">
+      <c r="A60" s="2"/>
+      <c r="B60" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="6">
         <v>31910</v>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="6">
         <v>32130</v>
       </c>
-      <c r="E60" s="4" t="n">
+      <c r="E60" s="6">
         <v>44500</v>
       </c>
-      <c r="F60" s="4" t="n">
+      <c r="F60" s="6">
         <v>41224</v>
       </c>
-      <c r="G60" s="4" t="n">
+      <c r="G60" s="6">
         <v>55788</v>
       </c>
-      <c r="H60" s="4" t="n">
+      <c r="H60" s="6">
         <v>64611</v>
       </c>
-      <c r="I60" s="4" t="n">
+      <c r="I60" s="6">
         <v>71173</v>
       </c>
-      <c r="J60" s="4" t="n">
+      <c r="J60" s="6">
         <v>57845</v>
       </c>
-      <c r="K60" s="4" t="n">
+      <c r="K60" s="6">
         <v>66779</v>
       </c>
-      <c r="L60" s="4" t="n">
+      <c r="L60" s="6">
         <v>61563</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:12">
+      <c r="A61" s="2"/>
+      <c r="B61" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="6">
         <v>22483</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="6">
         <v>16489</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E61" s="6">
         <v>10911</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="F61" s="6">
         <v>8463</v>
       </c>
-      <c r="G61" s="4" t="n">
+      <c r="G61" s="6">
         <v>12521</v>
       </c>
-      <c r="H61" s="4" t="n">
+      <c r="H61" s="6">
         <v>17084</v>
       </c>
-      <c r="I61" s="4" t="n">
+      <c r="I61" s="6">
         <v>21452</v>
       </c>
-      <c r="J61" s="4" t="n">
+      <c r="J61" s="6">
         <v>12860</v>
       </c>
-      <c r="K61" s="4" t="n">
+      <c r="K61" s="6">
         <v>19168</v>
       </c>
-      <c r="L61" s="4" t="n">
+      <c r="L61" s="6">
         <v>24834</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="1:12" ht="20.399999999999999">
+      <c r="A62" s="2"/>
+      <c r="B62" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="6">
         <v>74957</v>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="6">
         <v>95490</v>
       </c>
-      <c r="E62" s="4" t="n">
+      <c r="E62" s="6">
         <v>83625</v>
       </c>
-      <c r="F62" s="4" t="n">
+      <c r="F62" s="6">
         <v>105162</v>
       </c>
-      <c r="G62" s="4" t="n">
+      <c r="G62" s="6">
         <v>108608</v>
       </c>
-      <c r="H62" s="4" t="n">
+      <c r="H62" s="6">
         <v>113547</v>
       </c>
-      <c r="I62" s="4" t="n">
+      <c r="I62" s="6">
         <v>123926</v>
       </c>
-      <c r="J62" s="4" t="n">
+      <c r="J62" s="6">
         <v>117907</v>
       </c>
-      <c r="K62" s="4" t="n">
+      <c r="K62" s="6">
         <v>124719</v>
       </c>
-      <c r="L62" s="4" t="n">
+      <c r="L62" s="6">
         <v>130941</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+    <row r="63" spans="1:12">
+      <c r="A63" s="2"/>
+      <c r="B63" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="6">
         <v>165039</v>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="6">
         <v>197824</v>
       </c>
-      <c r="E63" s="4" t="n">
+      <c r="E63" s="6">
         <v>218330</v>
       </c>
-      <c r="F63" s="4" t="n">
+      <c r="F63" s="6">
         <v>281706</v>
       </c>
-      <c r="G63" s="4" t="n">
+      <c r="G63" s="6">
         <v>282433</v>
       </c>
-      <c r="H63" s="4" t="n">
+      <c r="H63" s="6">
         <v>260766</v>
       </c>
-      <c r="I63" s="4" t="n">
+      <c r="I63" s="6">
         <v>250643</v>
       </c>
-      <c r="J63" s="4" t="n">
+      <c r="J63" s="6">
         <v>241568</v>
       </c>
-      <c r="K63" s="4" t="n">
+      <c r="K63" s="6">
         <v>281365</v>
       </c>
-      <c r="L63" s="4" t="n">
+      <c r="L63" s="6">
         <v>340188</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:12" ht="10.8" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="6">
         <v>116677</v>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="6">
         <v>119000</v>
       </c>
-      <c r="E64" s="4" t="n">
+      <c r="E64" s="6">
         <v>112403</v>
       </c>
-      <c r="F64" s="4" t="n">
+      <c r="F64" s="6">
         <v>127930</v>
       </c>
-      <c r="G64" s="4" t="n">
+      <c r="G64" s="6">
         <v>137907</v>
       </c>
-      <c r="H64" s="4" t="n">
+      <c r="H64" s="6">
         <v>155544</v>
       </c>
-      <c r="I64" s="4" t="n">
+      <c r="I64" s="6">
         <v>163008</v>
       </c>
-      <c r="J64" s="4" t="n">
+      <c r="J64" s="6">
         <v>164475</v>
       </c>
-      <c r="K64" s="4" t="n">
+      <c r="K64" s="6">
         <v>161968</v>
       </c>
-      <c r="L64" s="4" t="n">
+      <c r="L64" s="6">
         <v>172213</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
+    <row r="65" spans="1:12" ht="20.399999999999999">
+      <c r="A65" s="2"/>
+      <c r="B65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="4" t="n">
+      <c r="C65" s="6">
         <v>52788</v>
       </c>
-      <c r="D65" s="4" t="n">
+      <c r="D65" s="6">
         <v>48566</v>
       </c>
-      <c r="E65" s="4" t="n">
+      <c r="E65" s="6">
         <v>43277</v>
       </c>
-      <c r="F65" s="4" t="n">
+      <c r="F65" s="6">
         <v>57100</v>
       </c>
-      <c r="G65" s="4" t="n">
+      <c r="G65" s="6">
         <v>68496</v>
       </c>
-      <c r="H65" s="4" t="n">
+      <c r="H65" s="6">
         <v>76326</v>
       </c>
-      <c r="I65" s="4" t="n">
+      <c r="I65" s="6">
         <v>75748</v>
       </c>
-      <c r="J65" s="4" t="n">
+      <c r="J65" s="6">
         <v>72941</v>
       </c>
-      <c r="K65" s="4" t="n">
+      <c r="K65" s="6">
         <v>75911</v>
       </c>
-      <c r="L65" s="4" t="n">
+      <c r="L65" s="6">
         <v>79172</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="10.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="1:12">
+      <c r="A66" s="2"/>
+      <c r="B66" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="4" t="n">
+      <c r="C66" s="6">
         <v>63889</v>
       </c>
-      <c r="D66" s="4" t="n">
+      <c r="D66" s="6">
         <v>70434</v>
       </c>
-      <c r="E66" s="4" t="n">
+      <c r="E66" s="6">
         <v>69126</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="F66" s="6">
         <v>70830</v>
       </c>
-      <c r="G66" s="4" t="n">
+      <c r="G66" s="6">
         <v>69411</v>
       </c>
-      <c r="H66" s="4" t="n">
+      <c r="H66" s="6">
         <v>79218</v>
       </c>
-      <c r="I66" s="4" t="n">
+      <c r="I66" s="6">
         <v>87260</v>
       </c>
-      <c r="J66" s="4" t="n">
+      <c r="J66" s="6">
         <v>91534</v>
       </c>
-      <c r="K66" s="4" t="n">
+      <c r="K66" s="6">
         <v>86057</v>
       </c>
-      <c r="L66" s="4" t="n">
+      <c r="L66" s="6">
         <v>93041</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:12" ht="10.8" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-    </row>
-    <row r="68" customFormat="false" ht="10.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" ht="10.8" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="10.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:L67"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A5:A21"/>
     <mergeCell ref="A22:A39"/>
     <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A68:L68"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="14"/>
+    <col min="2" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>2550</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1">
         <v>2551</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1">
         <v>2552</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1">
         <v>2553</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1">
         <v>2554</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1">
         <v>2555</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1">
         <v>2556</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1">
         <v>2557</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1">
         <v>2558</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1">
         <v>2559</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>7611931</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>7601638</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>7076190</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>8167164</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>10345866</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>12525214</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>15911375</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>14603825</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>19908785</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>21593285</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>3905271</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>3984614</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>4059988</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>4442375</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>5101406</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>5650619</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>6305945</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>6161893</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>5631438</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>6174957</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>920366</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>909017</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>853380</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>844644</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>952519</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>1083433</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>1166633</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>1099709</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>1235468</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>1407458</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>709811</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>711290</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>826437</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>995321</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>1158092</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>1286861</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>1347585</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>1239183</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>1404271</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>1523555</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>764072</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>794331</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>737460</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>789632</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>933534</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>1046755</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>1021936</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>942706</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>922977</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>910901</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>436100</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>464330</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>483983</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>569334</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>601146</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>605477</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>630243</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>597892</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>658278</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>747219</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>116677</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>119000</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>112403</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>127930</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>137907</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>155544</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>163008</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>164475</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>161968</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>172213</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">SUM(B2:B8)</f>
+      <c r="B9">
+        <f t="shared" ref="B9:K9" si="0">SUM(B2:B8)</f>
         <v>14464228</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">SUM(C2:C8)</f>
+      <c r="C9">
+        <f t="shared" si="0"/>
         <v>14584220</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">SUM(D2:D8)</f>
+      <c r="D9">
+        <f t="shared" si="0"/>
         <v>14149841</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">SUM(E2:E8)</f>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>15936400</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">SUM(F2:F8)</f>
+      <c r="F9">
+        <f t="shared" si="0"/>
         <v>19230470</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">SUM(G2:G8)</f>
+      <c r="G9">
+        <f t="shared" si="0"/>
         <v>22353903</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">SUM(H2:H8)</f>
+      <c r="H9">
+        <f t="shared" si="0"/>
         <v>26546725</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">SUM(I2:I8)</f>
+      <c r="I9">
+        <f t="shared" si="0"/>
         <v>24809683</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">SUM(J2:J8)</f>
+      <c r="J9">
+        <f t="shared" si="0"/>
         <v>29923185</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">SUM(K2:K8)</f>
+      <c r="K9">
+        <f t="shared" si="0"/>
         <v>32529588</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/dataset/continents/main.xlsx
+++ b/dataset/continents/main.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sector_17_3_TH_ (1)" sheetId="1" r:id="rId1"/>
@@ -412,15 +412,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -431,6 +422,15 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,2428 +815,2422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="14" style="4"/>
-    <col min="3" max="6" width="7.21875" style="4"/>
-    <col min="7" max="12" width="7.6640625" style="4"/>
-    <col min="13" max="1025" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="14" style="1"/>
+    <col min="3" max="6" width="7.21875" style="1"/>
+    <col min="7" max="12" width="7.6640625" style="1"/>
+    <col min="13" max="1025" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="10.8" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" ht="10.8" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="N2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>2550</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>2551</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>2552</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>2553</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>2554</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>2555</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <v>2556</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>2557</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="2">
         <v>2558</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <v>2559</v>
       </c>
       <c r="N3"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>14464228</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>14584220</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>14149841</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>15936400</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14" ht="10.8" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>7611931</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>7601638</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>7076190</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>8167164</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:L5" si="0">SUM(G6,G16,G17,G18,G20,G19,G21)</f>
         <v>10345866</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>12525214</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>15911375</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>14603825</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>19908785</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <f t="shared" si="0"/>
         <v>21593285</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>3520051</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>3971429</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>3968579</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>4534235</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>5594577</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>6281153</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>7282266</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>6641772</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>7920481</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>8585251</v>
       </c>
-      <c r="N6" s="7">
-        <f>SUM(D6,D16,D17,D18,D19,D20,D21)</f>
-        <v>7601638</v>
-      </c>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>8987</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>9055</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>8353</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>7073</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>7471</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>10459</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>14205</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>11285</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>13836</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>14023</v>
       </c>
       <c r="N7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>99945</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>85790</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>96586</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>146274</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>265903</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>423642</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>481595</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>550339</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>537950</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>674975</v>
       </c>
-      <c r="N8" s="7">
-        <f>SUM(C8:C15)</f>
-        <v>3511064</v>
-      </c>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>237592</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>247930</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>227205</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>286072</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>370795</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>447820</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>594251</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>497592</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>469125</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>534797</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>513701</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>621564</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>655034</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>715345</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>891950</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>975999</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>976639</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>1053983</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>1220522</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>1388020</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1540080</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>1805332</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>1757813</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>2058956</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>2500280</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>2554397</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>3041097</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>2613418</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <v>3418855</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="3">
         <v>3494890</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>72205</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>71902</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>79279</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>90179</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>110671</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>129385</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>172383</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>206794</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
         <v>259678</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
         <v>341626</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>205266</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>221506</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>217705</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>246430</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>268375</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>289566</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>321571</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>304813</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <v>310968</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="3">
         <v>339150</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>604603</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>570047</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>563575</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>603538</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>682364</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>831215</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>955468</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>844133</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <v>938385</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="3">
         <v>967550</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>237672</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>338303</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>363029</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>380368</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>496768</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>618670</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>725057</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>559415</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <v>751162</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <v>830220</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>907117</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>826660</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>777508</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>1122219</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>1721247</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>2786860</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>4637335</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>4636298</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>7936795</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="3">
         <v>8757646</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>367862</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>337827</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>318762</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>316476</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="3">
         <v>411834</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <v>473666</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="3">
         <v>588335</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="3">
         <v>483131</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="3">
         <v>669617</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="3">
         <v>751264</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>1277638</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>1153868</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>1004453</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>993674</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>1127893</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>1373716</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>1536425</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>1267886</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <v>1381702</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="3">
         <v>1439510</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>1083652</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>889210</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>618227</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>805445</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>1006283</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>1163619</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>1295342</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>1122566</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <v>1373045</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="3">
         <v>1464200</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>427474</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>393176</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>362783</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>369220</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>447610</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>394225</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>502176</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>394149</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <v>552699</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="3">
         <v>522273</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>28137</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>29468</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>25878</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>25895</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>36422</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>51975</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>69496</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>58023</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>74446</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="3">
         <v>73141</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>3905271</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>3984614</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>4059988</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>4442375</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>5101406</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <v>5650619</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>6305945</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>6161893</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <v>5631438</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="3">
         <v>6174957</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>81391</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>80561</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>85786</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>90026</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>89242</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <v>94667</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="3">
         <v>106278</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="3">
         <v>100968</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="3">
         <v>97869</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="3">
         <v>100373</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>72018</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>76132</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>80420</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>80000</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>82610</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <v>94896</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <v>101109</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>99729</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <v>106090</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="3">
         <v>111013</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>141110</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <v>149683</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>144834</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <v>152398</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="3">
         <v>164096</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="3">
         <v>167499</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="3">
         <v>163186</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="3">
         <v>160977</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="3">
         <v>159435</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="3">
         <v>165581</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>143266</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>155143</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>156000</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>146946</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>157046</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <v>154919</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <v>141692</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>142425</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>134750</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="3">
         <v>134238</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>373090</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>398407</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>427067</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>461670</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>515572</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <v>576106</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="3">
         <v>611582</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="3">
         <v>635073</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <v>681114</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="3">
         <v>738878</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>544495</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <v>542726</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>573473</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>606874</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="3">
         <v>619133</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <v>682419</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <v>737658</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>715240</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <v>761819</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="3">
         <v>837885</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>73734</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <v>73380</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>65530</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>57515</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="3">
         <v>58945</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <v>60305</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="3">
         <v>63522</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>63038</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="3">
         <v>64758</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="3">
         <v>67486</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>171328</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <v>159513</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>170105</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>168203</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="3">
         <v>185869</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <v>200703</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <v>207192</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>219875</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="3">
         <v>246094</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="3">
         <v>265597</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>194434</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>193541</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>205412</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>196994</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="3">
         <v>198891</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="3">
         <v>208122</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="3">
         <v>218765</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="3">
         <v>211524</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="3">
         <v>221619</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="3">
         <v>235762</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>108941</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
         <v>124600</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>121575</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <v>132108</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="3">
         <v>136931</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <v>148796</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <v>154049</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="3">
         <v>145207</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="3">
         <v>135382</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="3">
         <v>131039</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="2"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>277503</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="3">
         <v>324120</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <v>336965</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <v>644678</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="3">
         <v>1054187</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="3">
         <v>1316564</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="3">
         <v>1746565</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="3">
         <v>1606430</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="3">
         <v>884136</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="3">
         <v>1090083</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="2"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>82111</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="3">
         <v>80369</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>75362</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>67242</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="3">
         <v>95383</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="3">
         <v>113141</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <v>123084</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="3">
         <v>116983</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="3">
         <v>150995</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="3">
         <v>168900</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="2"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3">
         <v>378387</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
         <v>392274</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <v>350819</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>355214</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="3">
         <v>373856</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="3">
         <v>364681</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="3">
         <v>341398</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="3">
         <v>324865</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="3">
         <v>321690</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="3">
         <v>332895</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="2"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="3">
         <v>146511</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="3">
         <v>143065</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="3">
         <v>148269</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <v>155761</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="3">
         <v>170044</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="3">
         <v>191147</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="3">
         <v>199923</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="3">
         <v>201271</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <v>206480</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="3">
         <v>209057</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="2"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <v>859010</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <v>826523</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="3">
         <v>841425</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="3">
         <v>810727</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="3">
         <v>844972</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="3">
         <v>873053</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="3">
         <v>905024</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="3">
         <v>907877</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="3">
         <v>947568</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="3">
         <v>1004345</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3">
         <v>148302</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="3">
         <v>164029</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="3">
         <v>181247</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="3">
         <v>211672</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="3">
         <v>240886</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="3">
         <v>280976</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="3">
         <v>346230</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="3">
         <v>370726</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="3">
         <v>365064</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="3">
         <v>409723</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3">
         <v>109640</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="3">
         <v>100548</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3">
         <v>95699</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="3">
         <v>104347</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="3">
         <v>113743</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="3">
         <v>122625</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="3">
         <v>138688</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="3">
         <v>139685</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="3">
         <v>146575</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="3">
         <v>172102</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="3">
         <v>920366</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="3">
         <v>909017</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="3">
         <v>853380</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="3">
         <v>844644</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="3">
         <v>952519</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="3">
         <v>1083433</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="3">
         <v>1166633</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="3">
         <v>1099709</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="3">
         <v>1235468</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="3">
         <v>1407458</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="2"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3">
         <v>6704</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="3">
         <v>7132</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="3">
         <v>7458</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="3">
         <v>10292</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="3">
         <v>12970</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="3">
         <v>17853</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="3">
         <v>21035</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="3">
         <v>21438</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="3">
         <v>28961</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="3">
         <v>45322</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="3">
         <v>15056</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="3">
         <v>16805</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="3">
         <v>17650</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>20390</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="3">
         <v>24560</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="3">
         <v>30387</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <v>37263</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="3">
         <v>46378</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="3">
         <v>48608</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="3">
         <v>67469</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>183440</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>180900</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="3">
         <v>169482</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>168393</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="3">
         <v>194356</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="3">
         <v>219354</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="3">
         <v>229897</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="3">
         <v>211059</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="3">
         <v>227601</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="3">
         <v>244869</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="40.799999999999997">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="3">
         <v>681972</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="3">
         <v>669097</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3">
         <v>627074</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>611792</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="3">
         <v>681748</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="3">
         <v>768638</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <v>823486</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="3">
         <v>763520</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="3">
         <v>867505</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="3">
         <v>975643</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>33194</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
         <v>35083</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="3">
         <v>31716</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>33777</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="3">
         <v>38885</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="3">
         <v>47201</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="3">
         <v>54952</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="3">
         <v>57314</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="3">
         <v>62793</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="3">
         <v>74155</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="3">
         <v>709811</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
         <v>711290</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="3">
         <v>826437</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>995321</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="3">
         <v>1158092</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="3">
         <v>1286861</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <v>1347585</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="3">
         <v>1239183</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="3">
         <v>1404271</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="3">
         <v>1523555</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="2"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>44789</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
         <v>46682</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="3">
         <v>53420</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>68081</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="3">
         <v>65150</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="3">
         <v>72657</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="3">
         <v>82418</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="3">
         <v>88134</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="3">
         <v>107394</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="3">
         <v>100263</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="3">
         <v>536356</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="3">
         <v>536964</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="3">
         <v>614566</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="3">
         <v>760371</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="3">
         <v>914971</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="3">
         <v>1013308</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="3">
         <v>1050889</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="3">
         <v>932603</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="3">
         <v>1069422</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="3">
         <v>1194508</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="2"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="3">
         <v>19546</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="3">
         <v>20589</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="3">
         <v>25499</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="3">
         <v>28621</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="3">
         <v>25382</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="3">
         <v>26277</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="3">
         <v>25455</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="3">
         <v>25887</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="3">
         <v>32678</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="3">
         <v>42486</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="2"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="3">
         <v>46656</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="3">
         <v>49169</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="3">
         <v>63260</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="3">
         <v>65171</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="3">
         <v>73727</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="3">
         <v>71982</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="3">
         <v>78986</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="3">
         <v>75398</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="3">
         <v>78635</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="3">
         <v>75308</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="2"/>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="3">
         <v>44327</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="3">
         <v>38993</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="3">
         <v>47138</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="3">
         <v>49738</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="3">
         <v>53636</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="3">
         <v>73346</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="3">
         <v>76260</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="3">
         <v>77441</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="3">
         <v>75434</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="3">
         <v>68195</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="2"/>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="3">
         <v>18137</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="3">
         <v>18893</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="3">
         <v>22554</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="3">
         <v>23339</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="3">
         <v>25226</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="3">
         <v>29291</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="3">
         <v>33577</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="3">
         <v>39720</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="3">
         <v>40708</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="3">
         <v>42795</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="3">
         <v>764072</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="3">
         <v>794331</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="3">
         <v>737460</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="3">
         <v>789632</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="3">
         <v>933534</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="3">
         <v>1046755</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="3">
         <v>1021936</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="3">
         <v>942706</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="3">
         <v>922977</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="3">
         <v>910901</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="2"/>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="3">
         <v>658148</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="3">
         <v>694473</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="3">
         <v>646705</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="3">
         <v>698046</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="3">
         <v>829855</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="3">
         <v>930241</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="3">
         <v>900460</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="3">
         <v>831854</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="3">
         <v>807450</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="3">
         <v>796370</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="2"/>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="3">
         <v>104195</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="3">
         <v>97894</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="3">
         <v>88398</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="3">
         <v>89364</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="3">
         <v>101092</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="3">
         <v>113871</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="3">
         <v>118395</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="3">
         <v>108081</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="3">
         <v>112411</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="3">
         <v>111595</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="2"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="3">
         <v>1729</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="3">
         <v>1964</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="3">
         <v>2357</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="3">
         <v>2222</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="3">
         <v>2587</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="3">
         <v>2643</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="3">
         <v>3081</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="3">
         <v>2771</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="3">
         <v>3116</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="3">
         <v>2936</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="3">
         <v>436100</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="3">
         <v>464330</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="3">
         <v>483983</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="3">
         <v>569334</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="3">
         <v>601146</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="3">
         <v>605477</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="3">
         <v>630243</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="3">
         <v>597892</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="3">
         <v>658278</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="3">
         <v>747219</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="2"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="3">
         <v>13037</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="3">
         <v>14122</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="3">
         <v>15733</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="3">
         <v>16729</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="3">
         <v>16703</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="3">
         <v>19918</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="3">
         <v>28175</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="3">
         <v>28934</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="3">
         <v>25216</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="3">
         <v>28114</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="2"/>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="3">
         <v>128674</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="3">
         <v>108275</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="3">
         <v>110884</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="3">
         <v>116050</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="3">
         <v>125093</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="3">
         <v>129551</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="3">
         <v>134874</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="3">
         <v>138778</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="3">
         <v>141031</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="3">
         <v>161579</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="2"/>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="3">
         <v>31910</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="3">
         <v>32130</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="3">
         <v>44500</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="3">
         <v>41224</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="3">
         <v>55788</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="3">
         <v>64611</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="3">
         <v>71173</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="3">
         <v>57845</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="3">
         <v>66779</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="3">
         <v>61563</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="2"/>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="3">
         <v>22483</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="3">
         <v>16489</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="3">
         <v>10911</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="3">
         <v>8463</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="3">
         <v>12521</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="3">
         <v>17084</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="3">
         <v>21452</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="3">
         <v>12860</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="3">
         <v>19168</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="3">
         <v>24834</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="20.399999999999999">
-      <c r="A62" s="2"/>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="8"/>
+      <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="3">
         <v>74957</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="3">
         <v>95490</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="3">
         <v>83625</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="3">
         <v>105162</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="3">
         <v>108608</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="3">
         <v>113547</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="3">
         <v>123926</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="3">
         <v>117907</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="3">
         <v>124719</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="3">
         <v>130941</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="2"/>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="8"/>
+      <c r="B63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="3">
         <v>165039</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="3">
         <v>197824</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="3">
         <v>218330</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="3">
         <v>281706</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="3">
         <v>282433</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="3">
         <v>260766</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="3">
         <v>250643</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="3">
         <v>241568</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="3">
         <v>281365</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="3">
         <v>340188</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="3">
         <v>116677</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="3">
         <v>119000</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="3">
         <v>112403</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="3">
         <v>127930</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="3">
         <v>137907</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="3">
         <v>155544</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="3">
         <v>163008</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="3">
         <v>164475</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="3">
         <v>161968</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="3">
         <v>172213</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="20.399999999999999">
-      <c r="A65" s="2"/>
-      <c r="B65" s="5" t="s">
+      <c r="A65" s="8"/>
+      <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="3">
         <v>52788</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="3">
         <v>48566</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="3">
         <v>43277</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="3">
         <v>57100</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="3">
         <v>68496</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="3">
         <v>76326</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="3">
         <v>75748</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="3">
         <v>72941</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="3">
         <v>75911</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="3">
         <v>79172</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="2"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="8"/>
+      <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="3">
         <v>63889</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="3">
         <v>70434</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="3">
         <v>69126</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="3">
         <v>70830</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="3">
         <v>69411</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="3">
         <v>79218</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="3">
         <v>87260</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="3">
         <v>91534</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="3">
         <v>86057</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="3">
         <v>93041</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="A22:A39"/>
+    <mergeCell ref="A40:A45"/>
     <mergeCell ref="A68:L68"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="A22:A39"/>
-    <mergeCell ref="A40:A45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3247,7 +3241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -3258,7 +3252,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B1">
@@ -3503,7 +3497,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B8">

--- a/dataset/continents/main.xlsx
+++ b/dataset/continents/main.xlsx
@@ -422,13 +422,13 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,51 +815,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="14" style="1"/>
-    <col min="3" max="6" width="7.21875" style="1"/>
-    <col min="7" max="12" width="7.6640625" style="1"/>
+    <col min="3" max="6" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="1025" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="10.8" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" ht="10.8" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="N2"/>
     </row>
     <row r="3" spans="1:14">
@@ -3187,50 +3187,50 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" ht="10.8" customHeight="1">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="A22:A39"/>
-    <mergeCell ref="A40:A45"/>
     <mergeCell ref="A68:L68"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="A22:A39"/>
+    <mergeCell ref="A40:A45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
